--- a/data/pca/factorExposure/factorExposure_2014-11-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.007455543563796649</v>
+        <v>-0.01365683498260072</v>
       </c>
       <c r="C2">
-        <v>0.08450809083395908</v>
+        <v>0.07573339602370086</v>
       </c>
       <c r="D2">
-        <v>-0.1426773517094562</v>
+        <v>-0.006941249857568826</v>
       </c>
       <c r="E2">
-        <v>-0.1357902408684114</v>
+        <v>-0.1696423894832352</v>
       </c>
       <c r="F2">
-        <v>0.1867650083208725</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03858938881413745</v>
+      </c>
+      <c r="G2">
+        <v>-0.04849428564494449</v>
+      </c>
+      <c r="H2">
+        <v>-0.06498367695618824</v>
+      </c>
+      <c r="I2">
+        <v>0.2221399840945439</v>
+      </c>
+      <c r="J2">
+        <v>0.1029964496919781</v>
+      </c>
+      <c r="K2">
+        <v>-0.1082485162847521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.02946673473851108</v>
+        <v>-0.01900391336414115</v>
       </c>
       <c r="C4">
-        <v>0.1579865494381745</v>
+        <v>0.1527435247773018</v>
       </c>
       <c r="D4">
-        <v>-0.03933588469102253</v>
+        <v>-0.04097255515426791</v>
       </c>
       <c r="E4">
-        <v>-0.08746892372773947</v>
+        <v>-0.08152323247243327</v>
       </c>
       <c r="F4">
-        <v>-0.03502051514032457</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.05836137746083792</v>
+      </c>
+      <c r="G4">
+        <v>-0.01043432426122126</v>
+      </c>
+      <c r="H4">
+        <v>-0.1175993938753286</v>
+      </c>
+      <c r="I4">
+        <v>0.0652197666299799</v>
+      </c>
+      <c r="J4">
+        <v>0.1215350022565887</v>
+      </c>
+      <c r="K4">
+        <v>0.1458779550888741</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.02038609207556003</v>
+        <v>-0.03604359321501689</v>
       </c>
       <c r="C6">
-        <v>0.07187576157727638</v>
+        <v>0.07323993110159251</v>
       </c>
       <c r="D6">
-        <v>-0.05794430581530337</v>
+        <v>-0.01883295743201322</v>
       </c>
       <c r="E6">
-        <v>-0.09770334119224929</v>
+        <v>-0.1039515409310245</v>
       </c>
       <c r="F6">
-        <v>-0.01649806349304114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02546510338972094</v>
+      </c>
+      <c r="G6">
+        <v>0.05348543877934124</v>
+      </c>
+      <c r="H6">
+        <v>-0.04078673408944333</v>
+      </c>
+      <c r="I6">
+        <v>0.06094850027047985</v>
+      </c>
+      <c r="J6">
+        <v>-0.01655214835897518</v>
+      </c>
+      <c r="K6">
+        <v>0.03423530706959371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.01112580385908411</v>
+        <v>-0.01117669091118639</v>
       </c>
       <c r="C7">
-        <v>0.05290227302904427</v>
+        <v>0.06649473051983595</v>
       </c>
       <c r="D7">
-        <v>-0.0165718296227185</v>
+        <v>-0.01137638603464224</v>
       </c>
       <c r="E7">
-        <v>-0.0580916756651125</v>
+        <v>-0.02962520200350263</v>
       </c>
       <c r="F7">
-        <v>-0.002941036533335477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02519037838330386</v>
+      </c>
+      <c r="G7">
+        <v>0.06079699190642522</v>
+      </c>
+      <c r="H7">
+        <v>-0.08455324295231073</v>
+      </c>
+      <c r="I7">
+        <v>0.01743092741435215</v>
+      </c>
+      <c r="J7">
+        <v>0.03128661560453608</v>
+      </c>
+      <c r="K7">
+        <v>0.01197394454762201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.016104726642218</v>
+        <v>0.00851668968282623</v>
       </c>
       <c r="C8">
-        <v>0.08135447650469885</v>
+        <v>0.07412672941190315</v>
       </c>
       <c r="D8">
-        <v>-0.05214372525200388</v>
+        <v>-0.03560548189399147</v>
       </c>
       <c r="E8">
-        <v>-0.1230735622792389</v>
+        <v>-0.08675013452481384</v>
       </c>
       <c r="F8">
-        <v>0.08039522863367757</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02306439916483011</v>
+      </c>
+      <c r="G8">
+        <v>-0.0529706341341255</v>
+      </c>
+      <c r="H8">
+        <v>-0.03547347168210467</v>
+      </c>
+      <c r="I8">
+        <v>0.01157683622914827</v>
+      </c>
+      <c r="J8">
+        <v>-0.004885150788742557</v>
+      </c>
+      <c r="K8">
+        <v>0.006173890339437772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.0141141991595753</v>
+        <v>-0.01108674610544331</v>
       </c>
       <c r="C9">
-        <v>0.1310717080284799</v>
+        <v>0.1165095005561698</v>
       </c>
       <c r="D9">
-        <v>-0.02564046471808075</v>
+        <v>-0.02704619974497713</v>
       </c>
       <c r="E9">
-        <v>-0.06801488718607857</v>
+        <v>-0.04502782174926869</v>
       </c>
       <c r="F9">
-        <v>-0.02701836275999359</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01302979943559852</v>
+      </c>
+      <c r="G9">
+        <v>0.002807666131310161</v>
+      </c>
+      <c r="H9">
+        <v>-0.1028919357746322</v>
+      </c>
+      <c r="I9">
+        <v>0.03974208469352011</v>
+      </c>
+      <c r="J9">
+        <v>0.05080437123463993</v>
+      </c>
+      <c r="K9">
+        <v>0.06944353164229419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2648572372394294</v>
+        <v>-0.250759615607475</v>
       </c>
       <c r="C10">
-        <v>-0.08372815352449829</v>
+        <v>-0.08520594600302685</v>
       </c>
       <c r="D10">
-        <v>-0.01619318976748664</v>
+        <v>-0.005860926229358555</v>
       </c>
       <c r="E10">
-        <v>0.01594988726890131</v>
+        <v>-0.01489599022472106</v>
       </c>
       <c r="F10">
-        <v>-0.005426172991560299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.00528089155315994</v>
+      </c>
+      <c r="G10">
+        <v>0.005615254733722271</v>
+      </c>
+      <c r="H10">
+        <v>-0.03277587130075441</v>
+      </c>
+      <c r="I10">
+        <v>-0.1838737291203349</v>
+      </c>
+      <c r="J10">
+        <v>0.007599334857097607</v>
+      </c>
+      <c r="K10">
+        <v>0.02181793362921098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.005987222521658387</v>
+        <v>-0.01292158262404035</v>
       </c>
       <c r="C11">
-        <v>0.06493144878265136</v>
+        <v>0.0806020126763617</v>
       </c>
       <c r="D11">
-        <v>-0.005869984501552709</v>
+        <v>-0.02406479900604338</v>
       </c>
       <c r="E11">
-        <v>-0.03910199741234636</v>
+        <v>-0.009947890660380257</v>
       </c>
       <c r="F11">
-        <v>-0.06293359212481954</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.01042018828535914</v>
+      </c>
+      <c r="G11">
+        <v>0.03122224881701457</v>
+      </c>
+      <c r="H11">
+        <v>-0.03037458669837417</v>
+      </c>
+      <c r="I11">
+        <v>-0.02812916714901225</v>
+      </c>
+      <c r="J11">
+        <v>-0.01330643410409039</v>
+      </c>
+      <c r="K11">
+        <v>0.008731998046511766</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.00701983032645782</v>
+        <v>-0.01423117429875741</v>
       </c>
       <c r="C12">
-        <v>0.0628550841702553</v>
+        <v>0.06341620809648409</v>
       </c>
       <c r="D12">
-        <v>0.002925242253266337</v>
+        <v>-0.01374403256087884</v>
       </c>
       <c r="E12">
-        <v>-0.03051068966491337</v>
+        <v>-0.008878375019101251</v>
       </c>
       <c r="F12">
-        <v>-0.04540358406112584</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01903971617455437</v>
+      </c>
+      <c r="G12">
+        <v>0.03603980051880198</v>
+      </c>
+      <c r="H12">
+        <v>-0.03037651353639074</v>
+      </c>
+      <c r="I12">
+        <v>-0.01445302974559836</v>
+      </c>
+      <c r="J12">
+        <v>-0.00102344720450089</v>
+      </c>
+      <c r="K12">
+        <v>0.01465588007332879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01447316811442277</v>
+        <v>-0.003925296055777212</v>
       </c>
       <c r="C13">
-        <v>0.09808259787259373</v>
+        <v>0.1109477401019046</v>
       </c>
       <c r="D13">
-        <v>-0.03533408575471501</v>
+        <v>-0.0218019832617314</v>
       </c>
       <c r="E13">
-        <v>-0.1353001532360512</v>
+        <v>-0.1462866594182574</v>
       </c>
       <c r="F13">
-        <v>-0.07379720763436273</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.09467783063061598</v>
+      </c>
+      <c r="G13">
+        <v>0.09569320726579976</v>
+      </c>
+      <c r="H13">
+        <v>-0.08818236093623145</v>
+      </c>
+      <c r="I13">
+        <v>-0.169895615734864</v>
+      </c>
+      <c r="J13">
+        <v>0.0381243893173845</v>
+      </c>
+      <c r="K13">
+        <v>-0.3333487239518157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.006223149589650576</v>
+        <v>-0.01509475425689366</v>
       </c>
       <c r="C14">
-        <v>0.05734344627510098</v>
+        <v>0.07546198203946619</v>
       </c>
       <c r="D14">
-        <v>-0.02234779627023346</v>
+        <v>-0.03252898382662586</v>
       </c>
       <c r="E14">
-        <v>-0.06009519785109116</v>
+        <v>-0.06493131953769139</v>
       </c>
       <c r="F14">
-        <v>-0.03109695553227495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03025413414134947</v>
+      </c>
+      <c r="G14">
+        <v>0.09496434978908741</v>
+      </c>
+      <c r="H14">
+        <v>-0.1906250874351758</v>
+      </c>
+      <c r="I14">
+        <v>-0.05428637390288089</v>
+      </c>
+      <c r="J14">
+        <v>-0.1565592007077709</v>
+      </c>
+      <c r="K14">
+        <v>-0.05649734999916006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.001382866915192658</v>
+        <v>0.000113798240140903</v>
       </c>
       <c r="C15">
-        <v>0.07627040950040283</v>
+        <v>0.07248466153470912</v>
       </c>
       <c r="D15">
-        <v>-0.0449818077928202</v>
+        <v>-0.01928720433861761</v>
       </c>
       <c r="E15">
-        <v>-0.0966691612098447</v>
+        <v>-0.05881218352960588</v>
       </c>
       <c r="F15">
-        <v>-0.01661133231610347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.01310691017423158</v>
+      </c>
+      <c r="G15">
+        <v>0.04404208920228104</v>
+      </c>
+      <c r="H15">
+        <v>-0.07135130655827249</v>
+      </c>
+      <c r="I15">
+        <v>-0.01250400770800254</v>
+      </c>
+      <c r="J15">
+        <v>-0.05319909964290097</v>
+      </c>
+      <c r="K15">
+        <v>0.02966477341711942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.01166061370531244</v>
+        <v>-0.01355924149693017</v>
       </c>
       <c r="C16">
-        <v>0.06162108724821429</v>
+        <v>0.0665387762956017</v>
       </c>
       <c r="D16">
-        <v>-0.003953575270225814</v>
+        <v>-0.01627874638930637</v>
       </c>
       <c r="E16">
-        <v>-0.02693617624603787</v>
+        <v>-0.003352340809680258</v>
       </c>
       <c r="F16">
-        <v>-0.04993524507363427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.001770306109740852</v>
+      </c>
+      <c r="G16">
+        <v>0.02979650410515963</v>
+      </c>
+      <c r="H16">
+        <v>-0.02702293634107072</v>
+      </c>
+      <c r="I16">
+        <v>-0.0109560873037034</v>
+      </c>
+      <c r="J16">
+        <v>-0.002543478477916901</v>
+      </c>
+      <c r="K16">
+        <v>0.007680251876871413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.008669012259463912</v>
+        <v>-0.009100398862080592</v>
       </c>
       <c r="C20">
-        <v>0.0733070202518825</v>
+        <v>0.08385019512490223</v>
       </c>
       <c r="D20">
-        <v>-0.03408612834743614</v>
+        <v>-0.007016992036210164</v>
       </c>
       <c r="E20">
-        <v>-0.05990393888591381</v>
+        <v>-0.02382060676791125</v>
       </c>
       <c r="F20">
-        <v>-0.0855189592989371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02690089596166033</v>
+      </c>
+      <c r="G20">
+        <v>0.07260721225152182</v>
+      </c>
+      <c r="H20">
+        <v>-0.06423647875745968</v>
+      </c>
+      <c r="I20">
+        <v>0.004585516202893891</v>
+      </c>
+      <c r="J20">
+        <v>0.003034557579777551</v>
+      </c>
+      <c r="K20">
+        <v>0.03946272569758919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.005234373972729944</v>
+        <v>-0.01189277358412531</v>
       </c>
       <c r="C21">
-        <v>0.09648044594720696</v>
+        <v>0.08657942667619505</v>
       </c>
       <c r="D21">
-        <v>-0.06564334351961089</v>
+        <v>-0.0123105475255115</v>
       </c>
       <c r="E21">
-        <v>-0.02246722395908174</v>
+        <v>-0.05499551590296069</v>
       </c>
       <c r="F21">
-        <v>0.01638514550099341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07520017716445675</v>
+      </c>
+      <c r="G21">
+        <v>0.0132112791037834</v>
+      </c>
+      <c r="H21">
+        <v>-0.1518432243776009</v>
+      </c>
+      <c r="I21">
+        <v>-0.05037814890901093</v>
+      </c>
+      <c r="J21">
+        <v>-0.001083477338344765</v>
+      </c>
+      <c r="K21">
+        <v>-0.04735774829358837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.00468304100366627</v>
+        <v>0.01250020292470583</v>
       </c>
       <c r="C22">
-        <v>0.1396134177766195</v>
+        <v>0.1490966884101798</v>
       </c>
       <c r="D22">
-        <v>-0.2920175553977754</v>
+        <v>0.00864779646909542</v>
       </c>
       <c r="E22">
-        <v>-0.1655584285058318</v>
+        <v>-0.4349891197550275</v>
       </c>
       <c r="F22">
-        <v>0.1817146029120015</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.1594280448792761</v>
+      </c>
+      <c r="G22">
+        <v>-0.231041467880454</v>
+      </c>
+      <c r="H22">
+        <v>0.3419711270568686</v>
+      </c>
+      <c r="I22">
+        <v>-0.1357617842877059</v>
+      </c>
+      <c r="J22">
+        <v>-0.1400326290041481</v>
+      </c>
+      <c r="K22">
+        <v>0.04454838284091183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.005280400851132406</v>
+        <v>0.008613570840444134</v>
       </c>
       <c r="C23">
-        <v>0.1412808097459723</v>
+        <v>0.1534095931756599</v>
       </c>
       <c r="D23">
-        <v>-0.2903034287073603</v>
+        <v>0.01042424533292592</v>
       </c>
       <c r="E23">
-        <v>-0.1631430777596412</v>
+        <v>-0.4239706169670012</v>
       </c>
       <c r="F23">
-        <v>0.1812551421613481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.1518903622172134</v>
+      </c>
+      <c r="G23">
+        <v>-0.2235416272139634</v>
+      </c>
+      <c r="H23">
+        <v>0.3186427668562731</v>
+      </c>
+      <c r="I23">
+        <v>-0.1353757868940955</v>
+      </c>
+      <c r="J23">
+        <v>-0.1259814198449714</v>
+      </c>
+      <c r="K23">
+        <v>0.04137614188245149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.002071880697012178</v>
+        <v>-0.0135906080701031</v>
       </c>
       <c r="C24">
-        <v>0.0774797154250553</v>
+        <v>0.07703785466715404</v>
       </c>
       <c r="D24">
-        <v>0.005635871195629188</v>
+        <v>-0.02903483473281939</v>
       </c>
       <c r="E24">
-        <v>-0.04854380143111974</v>
+        <v>-0.0103329818956099</v>
       </c>
       <c r="F24">
-        <v>-0.05099952159536345</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.004962621344687996</v>
+      </c>
+      <c r="G24">
+        <v>0.03483488398648003</v>
+      </c>
+      <c r="H24">
+        <v>-0.04182725704014138</v>
+      </c>
+      <c r="I24">
+        <v>-0.01277628220597974</v>
+      </c>
+      <c r="J24">
+        <v>-0.003007820970526049</v>
+      </c>
+      <c r="K24">
+        <v>0.0128567967369805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.01045930434826849</v>
+        <v>-0.01972180625452866</v>
       </c>
       <c r="C25">
-        <v>0.07289333643381569</v>
+        <v>0.07491578863112149</v>
       </c>
       <c r="D25">
-        <v>0.000187363015409653</v>
+        <v>-0.01938626294026676</v>
       </c>
       <c r="E25">
-        <v>-0.02336082004288818</v>
+        <v>-0.006460999290603931</v>
       </c>
       <c r="F25">
-        <v>-0.05015270261488499</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.00850464508725059</v>
+      </c>
+      <c r="G25">
+        <v>0.02810712438526813</v>
+      </c>
+      <c r="H25">
+        <v>-0.03006954380385701</v>
+      </c>
+      <c r="I25">
+        <v>-0.03434420943612438</v>
+      </c>
+      <c r="J25">
+        <v>-0.01268393918041958</v>
+      </c>
+      <c r="K25">
+        <v>0.004155362267624006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.008837578190516717</v>
+        <v>-0.02020730102363344</v>
       </c>
       <c r="C26">
-        <v>0.05558834499867885</v>
+        <v>0.06351723805470691</v>
       </c>
       <c r="D26">
-        <v>0.00142634587232904</v>
+        <v>-0.04815002768918305</v>
       </c>
       <c r="E26">
-        <v>-0.05630267827706164</v>
+        <v>-0.007829563677414261</v>
       </c>
       <c r="F26">
-        <v>-0.01392031344766088</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.007347490221046117</v>
+      </c>
+      <c r="G26">
+        <v>0.0228450411524025</v>
+      </c>
+      <c r="H26">
+        <v>-0.1109313848191289</v>
+      </c>
+      <c r="I26">
+        <v>0.03140542011604573</v>
+      </c>
+      <c r="J26">
+        <v>0.0660717842699616</v>
+      </c>
+      <c r="K26">
+        <v>0.07018167434398799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3617434805088129</v>
+        <v>-0.3241879959213263</v>
       </c>
       <c r="C28">
-        <v>-0.08880367985272342</v>
+        <v>-0.1023488197695709</v>
       </c>
       <c r="D28">
-        <v>0.02137569141981414</v>
+        <v>0.01441046298394657</v>
       </c>
       <c r="E28">
-        <v>0.06535794380079447</v>
+        <v>-0.0004824158233666497</v>
       </c>
       <c r="F28">
-        <v>0.01740059906243478</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01700881883389745</v>
+      </c>
+      <c r="G28">
+        <v>-0.1024619165269262</v>
+      </c>
+      <c r="H28">
+        <v>-0.07097789471208935</v>
+      </c>
+      <c r="I28">
+        <v>-0.1077133861279438</v>
+      </c>
+      <c r="J28">
+        <v>0.1169934611392516</v>
+      </c>
+      <c r="K28">
+        <v>-0.01133378629208879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.00461744540478934</v>
+        <v>-0.009417335480686439</v>
       </c>
       <c r="C29">
-        <v>0.05610901699456639</v>
+        <v>0.07816554414196754</v>
       </c>
       <c r="D29">
-        <v>-0.04395481501903463</v>
+        <v>-0.03318688635374473</v>
       </c>
       <c r="E29">
-        <v>-0.1071294050823876</v>
+        <v>-0.1078840014875086</v>
       </c>
       <c r="F29">
-        <v>-0.07322043725824423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.0326295920897289</v>
+      </c>
+      <c r="G29">
+        <v>0.1544135555330498</v>
+      </c>
+      <c r="H29">
+        <v>-0.2738274191184161</v>
+      </c>
+      <c r="I29">
+        <v>-0.07374442002026459</v>
+      </c>
+      <c r="J29">
+        <v>-0.2370446331418052</v>
+      </c>
+      <c r="K29">
+        <v>-0.1229321799826064</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.02769386392119084</v>
+        <v>-0.02429663315255426</v>
       </c>
       <c r="C30">
-        <v>0.1829076258079796</v>
+        <v>0.1575210119104163</v>
       </c>
       <c r="D30">
-        <v>-0.01427401458409515</v>
+        <v>-0.04293790206143237</v>
       </c>
       <c r="E30">
-        <v>-0.07976021534295763</v>
+        <v>-0.05476377228197046</v>
       </c>
       <c r="F30">
-        <v>0.0007249328819074826</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02181816906418708</v>
+      </c>
+      <c r="G30">
+        <v>-0.01124828068026152</v>
+      </c>
+      <c r="H30">
+        <v>-0.02766519289484456</v>
+      </c>
+      <c r="I30">
+        <v>0.05908215891087915</v>
+      </c>
+      <c r="J30">
+        <v>0.06339963603623242</v>
+      </c>
+      <c r="K30">
+        <v>0.04655905967042763</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.007193322438893987</v>
+        <v>-0.008275899387612294</v>
       </c>
       <c r="C31">
-        <v>0.0990879648824404</v>
+        <v>0.09706023268596328</v>
       </c>
       <c r="D31">
-        <v>0.04394698459848083</v>
+        <v>-0.03377727180328845</v>
       </c>
       <c r="E31">
-        <v>0.01419529108629121</v>
+        <v>0.02150424489020922</v>
       </c>
       <c r="F31">
-        <v>0.02541607253903953</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.007787554004555605</v>
+      </c>
+      <c r="G31">
+        <v>-0.03466353234904641</v>
+      </c>
+      <c r="H31">
+        <v>-0.04346237362397259</v>
+      </c>
+      <c r="I31">
+        <v>-0.05032972264805129</v>
+      </c>
+      <c r="J31">
+        <v>-0.01960830869557125</v>
+      </c>
+      <c r="K31">
+        <v>-0.01092854238479449</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.03409694085726157</v>
+        <v>-0.02474019654032132</v>
       </c>
       <c r="C32">
-        <v>0.08256932987125877</v>
+        <v>0.06781715784129669</v>
       </c>
       <c r="D32">
-        <v>-0.09229863806109082</v>
+        <v>-0.009144629685222366</v>
       </c>
       <c r="E32">
-        <v>-0.1098926478170831</v>
+        <v>-0.128470145846761</v>
       </c>
       <c r="F32">
-        <v>0.0315936255023766</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.0295532067895562</v>
+      </c>
+      <c r="G32">
+        <v>0.01894508002087193</v>
+      </c>
+      <c r="H32">
+        <v>-0.1246219219080094</v>
+      </c>
+      <c r="I32">
+        <v>-0.1452463927101289</v>
+      </c>
+      <c r="J32">
+        <v>0.1417332727975565</v>
+      </c>
+      <c r="K32">
+        <v>-0.2635700580265223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.006437738627811131</v>
+        <v>-0.01231962208370125</v>
       </c>
       <c r="C33">
-        <v>0.09221924656862093</v>
+        <v>0.1086736990204322</v>
       </c>
       <c r="D33">
-        <v>-0.004984837242094518</v>
+        <v>-0.02576770220041047</v>
       </c>
       <c r="E33">
-        <v>-0.06321198870068286</v>
+        <v>-0.04137794092133015</v>
       </c>
       <c r="F33">
-        <v>-0.01571270929458807</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.007486352838551574</v>
+      </c>
+      <c r="G33">
+        <v>0.03344976403077872</v>
+      </c>
+      <c r="H33">
+        <v>-0.05845733872769475</v>
+      </c>
+      <c r="I33">
+        <v>-0.02578914870319173</v>
+      </c>
+      <c r="J33">
+        <v>0.006767294087001906</v>
+      </c>
+      <c r="K33">
+        <v>0.01693979561821397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.0009296551054034</v>
+        <v>-0.01335415205394299</v>
       </c>
       <c r="C34">
-        <v>0.05944561711751128</v>
+        <v>0.0559081088973578</v>
       </c>
       <c r="D34">
-        <v>0.002272133613162998</v>
+        <v>-0.01575227498837902</v>
       </c>
       <c r="E34">
-        <v>-0.02280147007860931</v>
+        <v>-0.001565450899731537</v>
       </c>
       <c r="F34">
-        <v>-0.03252205381728884</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.005137341471805696</v>
+      </c>
+      <c r="G34">
+        <v>0.02920702547426488</v>
+      </c>
+      <c r="H34">
+        <v>-0.003906099814268339</v>
+      </c>
+      <c r="I34">
+        <v>-0.02656290285548511</v>
+      </c>
+      <c r="J34">
+        <v>0.002783186664952523</v>
+      </c>
+      <c r="K34">
+        <v>0.01598047396415675</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.001993229199436214</v>
+        <v>-0.007364492371640935</v>
       </c>
       <c r="C35">
-        <v>0.0100768419252219</v>
+        <v>0.03676153839675926</v>
       </c>
       <c r="D35">
-        <v>-0.01007364915102522</v>
+        <v>-0.009121029517493728</v>
       </c>
       <c r="E35">
-        <v>-0.01829942043034222</v>
+        <v>-0.03389397920282495</v>
       </c>
       <c r="F35">
-        <v>-0.02110059647630429</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.00355130792299756</v>
+      </c>
+      <c r="G35">
+        <v>0.0643515747081079</v>
+      </c>
+      <c r="H35">
+        <v>-0.1341415773698631</v>
+      </c>
+      <c r="I35">
+        <v>-0.08835989377301515</v>
+      </c>
+      <c r="J35">
+        <v>-0.1512722939142639</v>
+      </c>
+      <c r="K35">
+        <v>-0.06309352284149429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.003750279650817697</v>
+        <v>-0.01028902714707844</v>
       </c>
       <c r="C36">
-        <v>0.04615107699220314</v>
+        <v>0.04885089266225124</v>
       </c>
       <c r="D36">
-        <v>-0.000634267385536999</v>
+        <v>-0.0354705303919922</v>
       </c>
       <c r="E36">
-        <v>-0.06699041926483257</v>
+        <v>-0.02819388690609376</v>
       </c>
       <c r="F36">
-        <v>-0.009110061335234051</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.0001176420939892824</v>
+      </c>
+      <c r="G36">
+        <v>0.02240213244806488</v>
+      </c>
+      <c r="H36">
+        <v>-0.06680684248744093</v>
+      </c>
+      <c r="I36">
+        <v>0.005593899546166175</v>
+      </c>
+      <c r="J36">
+        <v>0.02818713332666022</v>
+      </c>
+      <c r="K36">
+        <v>0.04661794900757352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.0145032975409605</v>
+        <v>-0.009944943542798224</v>
       </c>
       <c r="C38">
-        <v>0.04956029253800182</v>
+        <v>0.06311054144603025</v>
       </c>
       <c r="D38">
-        <v>-0.01314324276420979</v>
+        <v>-0.02370326070970818</v>
       </c>
       <c r="E38">
-        <v>-0.0593410650639743</v>
+        <v>-0.03937026751336186</v>
       </c>
       <c r="F38">
-        <v>-0.000431164439334715</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04785954263756295</v>
+      </c>
+      <c r="G38">
+        <v>0.01296200400685903</v>
+      </c>
+      <c r="H38">
+        <v>-0.06184893435817355</v>
+      </c>
+      <c r="I38">
+        <v>-0.04814111890541466</v>
+      </c>
+      <c r="J38">
+        <v>0.001456153072993226</v>
+      </c>
+      <c r="K38">
+        <v>0.02817782904859227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.004266866331577214</v>
+        <v>-0.009834432322526123</v>
       </c>
       <c r="C39">
-        <v>0.1342628340581764</v>
+        <v>0.1321046074406408</v>
       </c>
       <c r="D39">
-        <v>-0.02102818373678177</v>
+        <v>-0.04105362860761297</v>
       </c>
       <c r="E39">
-        <v>-0.06952900287568278</v>
+        <v>-0.02337184047167744</v>
       </c>
       <c r="F39">
-        <v>-0.06309171896092514</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01104126217913461</v>
+      </c>
+      <c r="G39">
+        <v>0.0580697199567499</v>
+      </c>
+      <c r="H39">
+        <v>-0.0420526517583255</v>
+      </c>
+      <c r="I39">
+        <v>0.02229567780600528</v>
+      </c>
+      <c r="J39">
+        <v>-0.000714253161391129</v>
+      </c>
+      <c r="K39">
+        <v>0.01612997300370956</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.00477428568113553</v>
+        <v>-0.01229806497082503</v>
       </c>
       <c r="C40">
-        <v>0.02991822694348108</v>
+        <v>0.06261741833188977</v>
       </c>
       <c r="D40">
-        <v>-0.03954878322109003</v>
+        <v>-0.0238127768719949</v>
       </c>
       <c r="E40">
-        <v>-0.1339500653342878</v>
+        <v>-0.1166958974480228</v>
       </c>
       <c r="F40">
-        <v>0.002783542660489068</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.01779521243757351</v>
+      </c>
+      <c r="G40">
+        <v>0.1176855046350161</v>
+      </c>
+      <c r="H40">
+        <v>0.0007970378550522004</v>
+      </c>
+      <c r="I40">
+        <v>-0.1639023479082346</v>
+      </c>
+      <c r="J40">
+        <v>-0.140791527593465</v>
+      </c>
+      <c r="K40">
+        <v>-0.02380335143065232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.007378925155589578</v>
+        <v>-0.01964165408021123</v>
       </c>
       <c r="C41">
-        <v>0.02289813498691936</v>
+        <v>0.0491097599980375</v>
       </c>
       <c r="D41">
-        <v>0.006183943440579364</v>
+        <v>-0.009811971861337601</v>
       </c>
       <c r="E41">
-        <v>0.01445407036906573</v>
+        <v>0.01010468584998068</v>
       </c>
       <c r="F41">
-        <v>0.006782276209349554</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006234746728437544</v>
+      </c>
+      <c r="G41">
+        <v>0.01036390093700344</v>
+      </c>
+      <c r="H41">
+        <v>-0.02650792584000853</v>
+      </c>
+      <c r="I41">
+        <v>-0.06697466604369236</v>
+      </c>
+      <c r="J41">
+        <v>-0.03405631816103236</v>
+      </c>
+      <c r="K41">
+        <v>-0.01151679401165071</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.0007697413666956649</v>
+        <v>-0.01225300202332387</v>
       </c>
       <c r="C43">
-        <v>0.01476369554646734</v>
+        <v>0.04185655383103906</v>
       </c>
       <c r="D43">
-        <v>-0.01170577178419777</v>
+        <v>-0.01991355365315807</v>
       </c>
       <c r="E43">
-        <v>-0.03288223080142137</v>
+        <v>-0.01314622060011419</v>
       </c>
       <c r="F43">
-        <v>-0.02275450004468143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01372804573746401</v>
+      </c>
+      <c r="G43">
+        <v>0.02434258014338248</v>
+      </c>
+      <c r="H43">
+        <v>-0.04522510469753176</v>
+      </c>
+      <c r="I43">
+        <v>-0.03236597989162501</v>
+      </c>
+      <c r="J43">
+        <v>-0.03741646128462073</v>
+      </c>
+      <c r="K43">
+        <v>-0.01117567125097274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01569011982368934</v>
+        <v>-0.005306933746166241</v>
       </c>
       <c r="C44">
-        <v>0.08013749023247636</v>
+        <v>0.08594249344889454</v>
       </c>
       <c r="D44">
-        <v>-0.0684408913298168</v>
+        <v>-0.03527813046063621</v>
       </c>
       <c r="E44">
-        <v>-0.1006895083813783</v>
+        <v>-0.09151047591749589</v>
       </c>
       <c r="F44">
-        <v>-0.02223142088668354</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01958547820076594</v>
+      </c>
+      <c r="G44">
+        <v>0.03281760521839443</v>
+      </c>
+      <c r="H44">
+        <v>-0.04186936594999512</v>
+      </c>
+      <c r="I44">
+        <v>0.07113718124296328</v>
+      </c>
+      <c r="J44">
+        <v>0.01535182113020447</v>
+      </c>
+      <c r="K44">
+        <v>0.02346908527707826</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.001778679395009667</v>
+        <v>-0.002398933754112223</v>
       </c>
       <c r="C46">
-        <v>0.06142759227353359</v>
+        <v>0.06630226627689598</v>
       </c>
       <c r="D46">
-        <v>-0.02445116288919509</v>
+        <v>-0.01982142531392355</v>
       </c>
       <c r="E46">
-        <v>-0.06497681292318049</v>
+        <v>-0.02858483415748955</v>
       </c>
       <c r="F46">
-        <v>-0.05187924533361124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.000845794084851232</v>
+      </c>
+      <c r="G46">
+        <v>0.05590492509507306</v>
+      </c>
+      <c r="H46">
+        <v>-0.1124585534368199</v>
+      </c>
+      <c r="I46">
+        <v>-0.0436700065608855</v>
+      </c>
+      <c r="J46">
+        <v>-0.09041244116885802</v>
+      </c>
+      <c r="K46">
+        <v>-0.01405097300172396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.00949812269066623</v>
+        <v>-0.02285164849216793</v>
       </c>
       <c r="C47">
-        <v>0.1091545304277342</v>
+        <v>0.09559892508074225</v>
       </c>
       <c r="D47">
-        <v>0.02456860901020924</v>
+        <v>-0.03080814582437344</v>
       </c>
       <c r="E47">
-        <v>0.03318443346009321</v>
+        <v>0.01606039695808916</v>
       </c>
       <c r="F47">
-        <v>0.02384386460931073</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.0035173297336499</v>
+      </c>
+      <c r="G47">
+        <v>-0.008858474722826261</v>
+      </c>
+      <c r="H47">
+        <v>-0.08452108779571382</v>
+      </c>
+      <c r="I47">
+        <v>-0.02681528064328299</v>
+      </c>
+      <c r="J47">
+        <v>-0.007337945061732635</v>
+      </c>
+      <c r="K47">
+        <v>-0.01649437653857059</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01007558527905432</v>
+        <v>-0.01715602914636314</v>
       </c>
       <c r="C48">
-        <v>0.05289726928174646</v>
+        <v>0.0578141799659512</v>
       </c>
       <c r="D48">
-        <v>0.02327761210343974</v>
+        <v>-0.04558031190954114</v>
       </c>
       <c r="E48">
-        <v>-0.07015293458559721</v>
+        <v>-0.01733959183453355</v>
       </c>
       <c r="F48">
-        <v>-0.01985857611251415</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.002745305986057074</v>
+      </c>
+      <c r="G48">
+        <v>0.02164012346381123</v>
+      </c>
+      <c r="H48">
+        <v>-0.1093347034444045</v>
+      </c>
+      <c r="I48">
+        <v>0.02310083662725651</v>
+      </c>
+      <c r="J48">
+        <v>0.06751646126388632</v>
+      </c>
+      <c r="K48">
+        <v>0.05572233790032071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.007398899515176737</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.01566592830626496</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.002477467567007825</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.02443273531089168</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.00180807859605632</v>
+      </c>
+      <c r="G49">
+        <v>0.01454257067766284</v>
+      </c>
+      <c r="H49">
+        <v>0.01353752612391827</v>
+      </c>
+      <c r="I49">
+        <v>0.03470614955843477</v>
+      </c>
+      <c r="J49">
+        <v>-0.01350144067524906</v>
+      </c>
+      <c r="K49">
+        <v>0.01692281434741601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.004032571378194953</v>
+        <v>-0.01297381109286738</v>
       </c>
       <c r="C50">
-        <v>0.09542976272707807</v>
+        <v>0.08950646964030563</v>
       </c>
       <c r="D50">
-        <v>0.01687426421475285</v>
+        <v>-0.01823585769007037</v>
       </c>
       <c r="E50">
-        <v>0.00827364114351696</v>
+        <v>0.00766725549467715</v>
       </c>
       <c r="F50">
-        <v>0.02404151365549682</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.007392672247217904</v>
+      </c>
+      <c r="G50">
+        <v>-0.02747746604088443</v>
+      </c>
+      <c r="H50">
+        <v>-0.06348793894959553</v>
+      </c>
+      <c r="I50">
+        <v>-0.06271946822377833</v>
+      </c>
+      <c r="J50">
+        <v>0.0093472155640019</v>
+      </c>
+      <c r="K50">
+        <v>-0.04137231903390286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.003761488330859537</v>
+        <v>0.005783971532586614</v>
       </c>
       <c r="C51">
-        <v>0.05759298781418063</v>
+        <v>0.04048976198952411</v>
       </c>
       <c r="D51">
-        <v>-0.06534629129105578</v>
+        <v>-0.01273454569846937</v>
       </c>
       <c r="E51">
-        <v>-0.07064733847062839</v>
+        <v>-0.04618398238330627</v>
       </c>
       <c r="F51">
-        <v>-0.0118292720789625</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.005815183522004206</v>
+      </c>
+      <c r="G51">
+        <v>0.02742046642921813</v>
+      </c>
+      <c r="H51">
+        <v>-0.09408720333545786</v>
+      </c>
+      <c r="I51">
+        <v>0.07975426854460052</v>
+      </c>
+      <c r="J51">
+        <v>0.09107893938212011</v>
+      </c>
+      <c r="K51">
+        <v>0.009075110760016445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.03512202584309117</v>
+        <v>-0.05230994012997823</v>
       </c>
       <c r="C53">
-        <v>0.1626000090365136</v>
+        <v>0.1467521763848291</v>
       </c>
       <c r="D53">
-        <v>0.08939843379359366</v>
+        <v>-0.04782194210132343</v>
       </c>
       <c r="E53">
-        <v>0.05433185869545833</v>
+        <v>0.09422549900308676</v>
       </c>
       <c r="F53">
-        <v>-0.009566081945040224</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.01243936009715683</v>
+      </c>
+      <c r="G53">
+        <v>-0.06101794911910213</v>
+      </c>
+      <c r="H53">
+        <v>0.006118969000343053</v>
+      </c>
+      <c r="I53">
+        <v>-0.06717143474297782</v>
+      </c>
+      <c r="J53">
+        <v>0.03376362002948927</v>
+      </c>
+      <c r="K53">
+        <v>-0.013393786577206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.01463470152685222</v>
+        <v>-0.01744932722531516</v>
       </c>
       <c r="C54">
-        <v>0.06280419811294961</v>
+        <v>0.07222878095889221</v>
       </c>
       <c r="D54">
-        <v>-0.0145599027427814</v>
+        <v>-0.0006547310397917567</v>
       </c>
       <c r="E54">
-        <v>-0.01507162779097046</v>
+        <v>-0.005078156238318947</v>
       </c>
       <c r="F54">
-        <v>-0.02567133848622343</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.002054265160375659</v>
+      </c>
+      <c r="G54">
+        <v>0.02378442414350928</v>
+      </c>
+      <c r="H54">
+        <v>-0.0710623303204235</v>
+      </c>
+      <c r="I54">
+        <v>-0.01643891561641666</v>
+      </c>
+      <c r="J54">
+        <v>-0.03748239909727848</v>
+      </c>
+      <c r="K54">
+        <v>-0.02442639700202416</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.02535082132011201</v>
+        <v>-0.02953205856011668</v>
       </c>
       <c r="C55">
-        <v>0.1241998106097996</v>
+        <v>0.1054658135706192</v>
       </c>
       <c r="D55">
-        <v>0.08641257504609472</v>
+        <v>-0.04905020990881714</v>
       </c>
       <c r="E55">
-        <v>0.01819011284063458</v>
+        <v>0.07710028516736825</v>
       </c>
       <c r="F55">
-        <v>0.01621313705173061</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01860394111220414</v>
+      </c>
+      <c r="G55">
+        <v>-0.02913571468382313</v>
+      </c>
+      <c r="H55">
+        <v>-0.005080471752952246</v>
+      </c>
+      <c r="I55">
+        <v>-0.01555471542142574</v>
+      </c>
+      <c r="J55">
+        <v>0.0119469961656708</v>
+      </c>
+      <c r="K55">
+        <v>-0.005373215077124696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.03637882518126544</v>
+        <v>-0.04306082043312909</v>
       </c>
       <c r="C56">
-        <v>0.1959987288978932</v>
+        <v>0.1734768172564953</v>
       </c>
       <c r="D56">
-        <v>0.1077776264254234</v>
+        <v>-0.06627205307443758</v>
       </c>
       <c r="E56">
-        <v>0.09469409607902558</v>
+        <v>0.1297771930221406</v>
       </c>
       <c r="F56">
-        <v>0.03812043312041652</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.02182883871913245</v>
+      </c>
+      <c r="G56">
+        <v>-0.1128931183254959</v>
+      </c>
+      <c r="H56">
+        <v>0.01744960597020591</v>
+      </c>
+      <c r="I56">
+        <v>-0.01292149088014732</v>
+      </c>
+      <c r="J56">
+        <v>0.04150670774721667</v>
+      </c>
+      <c r="K56">
+        <v>0.03564272291286573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.01984114250996874</v>
+        <v>-0.01296952336651274</v>
       </c>
       <c r="C58">
-        <v>0.1961374582680157</v>
+        <v>0.1708277573826146</v>
       </c>
       <c r="D58">
-        <v>-0.2469602503294419</v>
+        <v>0.002629717655634709</v>
       </c>
       <c r="E58">
-        <v>-0.134268871636273</v>
+        <v>-0.2759656706183882</v>
       </c>
       <c r="F58">
-        <v>0.071066712413506</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.08133784363518311</v>
+      </c>
+      <c r="G58">
+        <v>-0.1590999215422374</v>
+      </c>
+      <c r="H58">
+        <v>-0.030595071017829</v>
+      </c>
+      <c r="I58">
+        <v>0.2625679046236189</v>
+      </c>
+      <c r="J58">
+        <v>0.2851303938452566</v>
+      </c>
+      <c r="K58">
+        <v>-0.2104757602310667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2753992593685942</v>
+        <v>-0.2826497627767233</v>
       </c>
       <c r="C59">
-        <v>-0.004810143332873146</v>
+        <v>-0.03570553863065784</v>
       </c>
       <c r="D59">
-        <v>-0.0298570814917653</v>
+        <v>-0.003529988486148126</v>
       </c>
       <c r="E59">
-        <v>-0.01231699720275236</v>
+        <v>-0.038443698059359</v>
       </c>
       <c r="F59">
-        <v>0.04692910924530094</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01864740258214299</v>
+      </c>
+      <c r="G59">
+        <v>-0.01878185499913496</v>
+      </c>
+      <c r="H59">
+        <v>0.03741514230030068</v>
+      </c>
+      <c r="I59">
+        <v>-0.05614911578778605</v>
+      </c>
+      <c r="J59">
+        <v>0.02130441526789128</v>
+      </c>
+      <c r="K59">
+        <v>0.03536265197347779</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1025484971849075</v>
+        <v>-0.1437698895437011</v>
       </c>
       <c r="C60">
-        <v>0.1474895481853134</v>
+        <v>0.1565794429482507</v>
       </c>
       <c r="D60">
-        <v>0.04344815844843051</v>
+        <v>-0.0379542693243474</v>
       </c>
       <c r="E60">
-        <v>-0.04769939669465423</v>
+        <v>0.03489217203302241</v>
       </c>
       <c r="F60">
-        <v>-0.2027701856577946</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.05422194585518775</v>
+      </c>
+      <c r="G60">
+        <v>0.2547977202069679</v>
+      </c>
+      <c r="H60">
+        <v>0.2689953993528362</v>
+      </c>
+      <c r="I60">
+        <v>0.0622455412167594</v>
+      </c>
+      <c r="J60">
+        <v>-0.05621813211107942</v>
+      </c>
+      <c r="K60">
+        <v>0.01582484313011622</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.001766399971535234</v>
+        <v>-0.01614412332915184</v>
       </c>
       <c r="C61">
-        <v>0.09589097173844309</v>
+        <v>0.1050082661077784</v>
       </c>
       <c r="D61">
-        <v>0.01899276055815962</v>
+        <v>-0.04141590955968179</v>
       </c>
       <c r="E61">
-        <v>-0.04860822892432796</v>
+        <v>0.002496872091771255</v>
       </c>
       <c r="F61">
-        <v>-0.06109598708751883</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.004151812070583372</v>
+      </c>
+      <c r="G61">
+        <v>0.05297164183942372</v>
+      </c>
+      <c r="H61">
+        <v>-0.04627522004993385</v>
+      </c>
+      <c r="I61">
+        <v>-0.0161361089722589</v>
+      </c>
+      <c r="J61">
+        <v>-0.02713884295141762</v>
+      </c>
+      <c r="K61">
+        <v>0.02784091974886987</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0002910217143860257</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.004396464299725472</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.005454756966308988</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.01375036787307491</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.006383780685898175</v>
+      </c>
+      <c r="G62">
+        <v>0.01952762326572883</v>
+      </c>
+      <c r="H62">
+        <v>-0.01396556671682684</v>
+      </c>
+      <c r="I62">
+        <v>0.0004958468170309684</v>
+      </c>
+      <c r="J62">
+        <v>-0.01197645043982854</v>
+      </c>
+      <c r="K62">
+        <v>0.001149881180914855</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.001795708606080111</v>
+        <v>-0.02002233742205257</v>
       </c>
       <c r="C63">
-        <v>0.06430127088548193</v>
+        <v>0.0755459850077375</v>
       </c>
       <c r="D63">
-        <v>-9.809944911536366e-05</v>
+        <v>-0.04337437863744221</v>
       </c>
       <c r="E63">
-        <v>-0.03170219943535872</v>
+        <v>-0.01019807876237917</v>
       </c>
       <c r="F63">
-        <v>-0.0392325630129538</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.004843549463216511</v>
+      </c>
+      <c r="G63">
+        <v>0.0338955634510922</v>
+      </c>
+      <c r="H63">
+        <v>-0.05522623222814909</v>
+      </c>
+      <c r="I63">
+        <v>-0.03221103068396129</v>
+      </c>
+      <c r="J63">
+        <v>-0.01288473918859589</v>
+      </c>
+      <c r="K63">
+        <v>0.04822414635025412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.005540181566375593</v>
+        <v>-0.01211432960458926</v>
       </c>
       <c r="C64">
-        <v>0.1200243740465927</v>
+        <v>0.1042699304212868</v>
       </c>
       <c r="D64">
-        <v>0.04695107768044889</v>
+        <v>-0.03067779364907817</v>
       </c>
       <c r="E64">
-        <v>-0.02702793028923849</v>
+        <v>-0.01371759239731385</v>
       </c>
       <c r="F64">
-        <v>-0.03035277332665434</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.02256586623505875</v>
+      </c>
+      <c r="G64">
+        <v>0.01272583315375018</v>
+      </c>
+      <c r="H64">
+        <v>-0.02414291994610319</v>
+      </c>
+      <c r="I64">
+        <v>-0.04876738207907461</v>
+      </c>
+      <c r="J64">
+        <v>-0.004958788479069397</v>
+      </c>
+      <c r="K64">
+        <v>0.02721499896211669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.01773706619204802</v>
+        <v>-0.0272627677831351</v>
       </c>
       <c r="C65">
-        <v>0.06903999625702258</v>
+        <v>0.08785786336867772</v>
       </c>
       <c r="D65">
-        <v>-0.0427763523663902</v>
+        <v>-0.0009597329384318631</v>
       </c>
       <c r="E65">
-        <v>-0.06120043259999957</v>
+        <v>-0.0615739636180121</v>
       </c>
       <c r="F65">
-        <v>-0.06151214371979536</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.02416226268745423</v>
+      </c>
+      <c r="G65">
+        <v>0.1096844911995972</v>
+      </c>
+      <c r="H65">
+        <v>0.01804645136857502</v>
+      </c>
+      <c r="I65">
+        <v>0.06508769921174661</v>
+      </c>
+      <c r="J65">
+        <v>-0.006643983151722362</v>
+      </c>
+      <c r="K65">
+        <v>0.05879111483963761</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.005047187294419772</v>
+        <v>-0.007657813286226967</v>
       </c>
       <c r="C66">
-        <v>0.1571925325366206</v>
+        <v>0.1605604722606392</v>
       </c>
       <c r="D66">
-        <v>-0.06099116725490474</v>
+        <v>-0.02544498983388797</v>
       </c>
       <c r="E66">
-        <v>-0.08508964004570148</v>
+        <v>-0.04683101945716873</v>
       </c>
       <c r="F66">
-        <v>-0.0515154312935252</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.00293932105050015</v>
+      </c>
+      <c r="G66">
+        <v>0.04321516549069225</v>
+      </c>
+      <c r="H66">
+        <v>-0.04719356161250939</v>
+      </c>
+      <c r="I66">
+        <v>0.02214040343714558</v>
+      </c>
+      <c r="J66">
+        <v>-0.0006131219549460981</v>
+      </c>
+      <c r="K66">
+        <v>0.0257386510310236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.01668494371651103</v>
+        <v>-0.0190695115716829</v>
       </c>
       <c r="C67">
-        <v>0.04361626337347013</v>
+        <v>0.05703041801525377</v>
       </c>
       <c r="D67">
-        <v>0.03485151243454688</v>
+        <v>-0.0317444421813555</v>
       </c>
       <c r="E67">
-        <v>-0.03520129391826855</v>
+        <v>-0.002132055177525393</v>
       </c>
       <c r="F67">
-        <v>-0.01159615761755201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03604872873438401</v>
+      </c>
+      <c r="G67">
+        <v>0.03525042286804995</v>
+      </c>
+      <c r="H67">
+        <v>-0.03841510185792287</v>
+      </c>
+      <c r="I67">
+        <v>-0.05447884557359769</v>
+      </c>
+      <c r="J67">
+        <v>-0.01318695246393692</v>
+      </c>
+      <c r="K67">
+        <v>-0.001362277078825879</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.26159891355044</v>
+        <v>-0.2893091063891521</v>
       </c>
       <c r="C68">
-        <v>-0.02542027990501888</v>
+        <v>-0.04186333295183523</v>
       </c>
       <c r="D68">
-        <v>-0.03789262062847377</v>
+        <v>0.02269290635668016</v>
       </c>
       <c r="E68">
-        <v>-0.01434071370747571</v>
+        <v>-0.05905199430735549</v>
       </c>
       <c r="F68">
-        <v>0.0480043268260673</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01538173165287384</v>
+      </c>
+      <c r="G68">
+        <v>-0.04100350367387993</v>
+      </c>
+      <c r="H68">
+        <v>0.02898849339062214</v>
+      </c>
+      <c r="I68">
+        <v>-0.04598807082180045</v>
+      </c>
+      <c r="J68">
+        <v>0.00968982748655252</v>
+      </c>
+      <c r="K68">
+        <v>0.06605012966774117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.008123962000697427</v>
+        <v>-0.008139658049269263</v>
       </c>
       <c r="C69">
-        <v>0.1069971088197325</v>
+        <v>0.07967013850842178</v>
       </c>
       <c r="D69">
-        <v>0.05903617047479769</v>
+        <v>-0.02459145680087997</v>
       </c>
       <c r="E69">
-        <v>-0.006043239266824407</v>
+        <v>0.01862793124463532</v>
       </c>
       <c r="F69">
-        <v>0.02428093476684495</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.0005595069644066443</v>
+      </c>
+      <c r="G69">
+        <v>0.006534596850717529</v>
+      </c>
+      <c r="H69">
+        <v>-0.06060251078806175</v>
+      </c>
+      <c r="I69">
+        <v>-0.03255731662735632</v>
+      </c>
+      <c r="J69">
+        <v>0.02415802363340857</v>
+      </c>
+      <c r="K69">
+        <v>-0.005246345867889077</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2859979879198983</v>
+        <v>-0.2787430410212358</v>
       </c>
       <c r="C71">
-        <v>-0.03780224825142438</v>
+        <v>-0.0656483262956937</v>
       </c>
       <c r="D71">
-        <v>-0.01392721020182069</v>
+        <v>0.009862372942739454</v>
       </c>
       <c r="E71">
-        <v>0.0003177429136960793</v>
+        <v>-0.0291328754563118</v>
       </c>
       <c r="F71">
-        <v>-0.01805092793617209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.03196089374721984</v>
+      </c>
+      <c r="G71">
+        <v>-0.01421564404744714</v>
+      </c>
+      <c r="H71">
+        <v>-0.05094058182823386</v>
+      </c>
+      <c r="I71">
+        <v>-0.04291567938188905</v>
+      </c>
+      <c r="J71">
+        <v>0.1344992795923679</v>
+      </c>
+      <c r="K71">
+        <v>0.02402549415360918</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.02531875712325215</v>
+        <v>-0.05069880161797247</v>
       </c>
       <c r="C72">
-        <v>0.1735157476036621</v>
+        <v>0.1528927196561135</v>
       </c>
       <c r="D72">
-        <v>-0.006313629046615426</v>
+        <v>-0.02184516983922898</v>
       </c>
       <c r="E72">
-        <v>-0.0845788666500672</v>
+        <v>-0.007306709862160325</v>
       </c>
       <c r="F72">
-        <v>-0.08645298361936905</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.00599664684952456</v>
+      </c>
+      <c r="G72">
+        <v>0.04503848919052782</v>
+      </c>
+      <c r="H72">
+        <v>0.02325239876738433</v>
+      </c>
+      <c r="I72">
+        <v>0.03863726884722961</v>
+      </c>
+      <c r="J72">
+        <v>0.00786513052328182</v>
+      </c>
+      <c r="K72">
+        <v>-0.03082177642928687</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.08376727628503286</v>
+        <v>-0.147610617419931</v>
       </c>
       <c r="C73">
-        <v>0.1520381381401266</v>
+        <v>0.1933295859540813</v>
       </c>
       <c r="D73">
-        <v>0.08196264607479643</v>
+        <v>-0.06028291280642166</v>
       </c>
       <c r="E73">
-        <v>-0.0575523931286657</v>
+        <v>0.1059963587563614</v>
       </c>
       <c r="F73">
-        <v>-0.2995765755248028</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.06624580991664836</v>
+      </c>
+      <c r="G73">
+        <v>0.4074349502451038</v>
+      </c>
+      <c r="H73">
+        <v>0.3252744437078451</v>
+      </c>
+      <c r="I73">
+        <v>0.04830668775992539</v>
+      </c>
+      <c r="J73">
+        <v>0.100408018686139</v>
+      </c>
+      <c r="K73">
+        <v>-0.115515857266476</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01334075467882147</v>
+        <v>-0.03365808487996568</v>
       </c>
       <c r="C74">
-        <v>0.1193130068274109</v>
+        <v>0.1166519827380074</v>
       </c>
       <c r="D74">
-        <v>0.1040934874673827</v>
+        <v>-0.03936362252356995</v>
       </c>
       <c r="E74">
-        <v>0.0492916710831592</v>
+        <v>0.08245850021640674</v>
       </c>
       <c r="F74">
-        <v>0.01143009236335744</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.008123217920862784</v>
+      </c>
+      <c r="G74">
+        <v>-0.03395248575363244</v>
+      </c>
+      <c r="H74">
+        <v>-0.01083213444512012</v>
+      </c>
+      <c r="I74">
+        <v>-0.01748169412122639</v>
+      </c>
+      <c r="J74">
+        <v>0.02459036435882753</v>
+      </c>
+      <c r="K74">
+        <v>0.03984852109660107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.06076183641823792</v>
+        <v>-0.05895107272155641</v>
       </c>
       <c r="C75">
-        <v>0.205714528712747</v>
+        <v>0.1964568392250522</v>
       </c>
       <c r="D75">
-        <v>0.1989090607136926</v>
+        <v>-0.06738755100461122</v>
       </c>
       <c r="E75">
-        <v>0.1629315103800433</v>
+        <v>0.2104875499241159</v>
       </c>
       <c r="F75">
-        <v>0.06786939292112047</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.04618176463330749</v>
+      </c>
+      <c r="G75">
+        <v>-0.1689351378718927</v>
+      </c>
+      <c r="H75">
+        <v>0.02825852942810297</v>
+      </c>
+      <c r="I75">
+        <v>-0.1084700819218733</v>
+      </c>
+      <c r="J75">
+        <v>0.025684347488542</v>
+      </c>
+      <c r="K75">
+        <v>0.001340528867569963</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.02981664565831393</v>
+        <v>-0.037682965285218</v>
       </c>
       <c r="C76">
-        <v>0.1462097887217491</v>
+        <v>0.1417766139404164</v>
       </c>
       <c r="D76">
-        <v>0.1055581159544329</v>
+        <v>-0.06419855994427175</v>
       </c>
       <c r="E76">
-        <v>0.05737233722360324</v>
+        <v>0.1118838125548017</v>
       </c>
       <c r="F76">
-        <v>-0.005264634911104703</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.007176155654036964</v>
+      </c>
+      <c r="G76">
+        <v>-0.03578462716787738</v>
+      </c>
+      <c r="H76">
+        <v>-0.002741318348457684</v>
+      </c>
+      <c r="I76">
+        <v>-0.04899744266316711</v>
+      </c>
+      <c r="J76">
+        <v>0.007553059475411221</v>
+      </c>
+      <c r="K76">
+        <v>0.13250391371761</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.07818218279712015</v>
+        <v>-0.04739010068701888</v>
       </c>
       <c r="C77">
-        <v>0.1795190990547429</v>
+        <v>0.2772329716736948</v>
       </c>
       <c r="D77">
-        <v>-0.5940060258246068</v>
+        <v>0.9447275686290852</v>
       </c>
       <c r="E77">
-        <v>0.6782583611916333</v>
+        <v>0.1017100011357286</v>
       </c>
       <c r="F77">
-        <v>-0.2687772964418315</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01687972844994038</v>
+      </c>
+      <c r="G77">
+        <v>0.01189453458961547</v>
+      </c>
+      <c r="H77">
+        <v>-0.04345847936461603</v>
+      </c>
+      <c r="I77">
+        <v>-0.007875030005629184</v>
+      </c>
+      <c r="J77">
+        <v>-0.003927201157446982</v>
+      </c>
+      <c r="K77">
+        <v>0.01146524645896663</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.03148409010931602</v>
+        <v>-0.03059579205529527</v>
       </c>
       <c r="C78">
-        <v>0.1618801414017729</v>
+        <v>0.1255980166046329</v>
       </c>
       <c r="D78">
-        <v>-0.03387242534591</v>
+        <v>-0.07388635320930106</v>
       </c>
       <c r="E78">
-        <v>-0.08699863175897336</v>
+        <v>-0.01330720801780655</v>
       </c>
       <c r="F78">
-        <v>0.1434018003594456</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.03844403052105697</v>
+      </c>
+      <c r="G78">
+        <v>-0.08789842191690572</v>
+      </c>
+      <c r="H78">
+        <v>-0.1212327107748141</v>
+      </c>
+      <c r="I78">
+        <v>0.4421758018462978</v>
+      </c>
+      <c r="J78">
+        <v>0.2359807804396025</v>
+      </c>
+      <c r="K78">
+        <v>0.1293049593653812</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.04607456141780303</v>
+        <v>-0.05779534993376065</v>
       </c>
       <c r="C79">
-        <v>0.2443344918916061</v>
+        <v>0.1845826717996196</v>
       </c>
       <c r="D79">
-        <v>0.2070804638518903</v>
+        <v>-0.06384909031204576</v>
       </c>
       <c r="E79">
-        <v>0.1619308226024003</v>
+        <v>0.1862037964633455</v>
       </c>
       <c r="F79">
-        <v>0.1743343989656813</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.02208483452526897</v>
+      </c>
+      <c r="G79">
+        <v>-0.2212880344340086</v>
+      </c>
+      <c r="H79">
+        <v>-0.02674802027482102</v>
+      </c>
+      <c r="I79">
+        <v>-0.0883537094389184</v>
+      </c>
+      <c r="J79">
+        <v>0.09688480515392928</v>
+      </c>
+      <c r="K79">
+        <v>-0.0588587130691902</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.007839257020542551</v>
+        <v>-0.01167691087844249</v>
       </c>
       <c r="C80">
-        <v>0.05826354563098714</v>
+        <v>0.05758258946654789</v>
       </c>
       <c r="D80">
-        <v>0.004277621588600544</v>
+        <v>-0.03483792382367008</v>
       </c>
       <c r="E80">
-        <v>-0.02581725592459688</v>
+        <v>-0.04303816917061266</v>
       </c>
       <c r="F80">
-        <v>-0.01982749350304125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.05404870257888257</v>
+      </c>
+      <c r="G80">
+        <v>0.05772772965954962</v>
+      </c>
+      <c r="H80">
+        <v>0.04125488598560487</v>
+      </c>
+      <c r="I80">
+        <v>-0.08109229548018454</v>
+      </c>
+      <c r="J80">
+        <v>-0.01286617994299534</v>
+      </c>
+      <c r="K80">
+        <v>-0.01250422812807466</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.02138334788818126</v>
+        <v>-0.0179542856841666</v>
       </c>
       <c r="C81">
-        <v>0.1252786362185145</v>
+        <v>0.1162118794072364</v>
       </c>
       <c r="D81">
-        <v>0.1403545432038233</v>
+        <v>-0.04242825176712872</v>
       </c>
       <c r="E81">
-        <v>0.1087525834416087</v>
+        <v>0.09903057044490542</v>
       </c>
       <c r="F81">
-        <v>0.0456653174168692</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.004892769174209039</v>
+      </c>
+      <c r="G81">
+        <v>-0.09829563319228335</v>
+      </c>
+      <c r="H81">
+        <v>-0.06011948863164911</v>
+      </c>
+      <c r="I81">
+        <v>-0.09196002720166219</v>
+      </c>
+      <c r="J81">
+        <v>0.0413835498695642</v>
+      </c>
+      <c r="K81">
+        <v>0.05744177820465941</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.03687616938455354</v>
+        <v>-0.04421904510317974</v>
       </c>
       <c r="C82">
-        <v>0.1552537383446945</v>
+        <v>0.1315658454250871</v>
       </c>
       <c r="D82">
-        <v>0.1475574846862553</v>
+        <v>-0.06862615098009343</v>
       </c>
       <c r="E82">
-        <v>0.0704122166910721</v>
+        <v>0.1219626675806497</v>
       </c>
       <c r="F82">
-        <v>0.002108686886020626</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.01867467762008928</v>
+      </c>
+      <c r="G82">
+        <v>-0.06789456300097123</v>
+      </c>
+      <c r="H82">
+        <v>-0.02348116585452438</v>
+      </c>
+      <c r="I82">
+        <v>-0.06607618847557636</v>
+      </c>
+      <c r="J82">
+        <v>0.04072628878710567</v>
+      </c>
+      <c r="K82">
+        <v>0.05635115717098014</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.001977672664951595</v>
+        <v>-0.007040885342072866</v>
       </c>
       <c r="C83">
-        <v>0.04557609152690514</v>
+        <v>0.01708216599504069</v>
       </c>
       <c r="D83">
-        <v>-0.1717423433296811</v>
+        <v>0.03798090895309057</v>
       </c>
       <c r="E83">
-        <v>0.1438775682106249</v>
+        <v>-0.1664288351928627</v>
       </c>
       <c r="F83">
-        <v>0.6425723409022731</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.9357712035179087</v>
+      </c>
+      <c r="G83">
+        <v>-0.1675388778782994</v>
+      </c>
+      <c r="H83">
+        <v>0.08266400223958544</v>
+      </c>
+      <c r="I83">
+        <v>-0.05085103945647454</v>
+      </c>
+      <c r="J83">
+        <v>0.008252615327830891</v>
+      </c>
+      <c r="K83">
+        <v>0.09812843880042046</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.0009934536703821324</v>
+        <v>0.001300550653167079</v>
       </c>
       <c r="C84">
-        <v>0.03386472518605788</v>
+        <v>0.03538642065376024</v>
       </c>
       <c r="D84">
-        <v>-0.0318205300378244</v>
+        <v>-0.05669932102949852</v>
       </c>
       <c r="E84">
-        <v>-0.0865203279709116</v>
+        <v>-0.07540338731077725</v>
       </c>
       <c r="F84">
-        <v>0.01654944753386534</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.0457913737982384</v>
+      </c>
+      <c r="G84">
+        <v>-0.04516404470028221</v>
+      </c>
+      <c r="H84">
+        <v>-0.0847887432913299</v>
+      </c>
+      <c r="I84">
+        <v>0.01596132973294928</v>
+      </c>
+      <c r="J84">
+        <v>-0.1018222035905042</v>
+      </c>
+      <c r="K84">
+        <v>0.1573055301322491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.02692401490623696</v>
+        <v>-0.02890706946379417</v>
       </c>
       <c r="C85">
-        <v>0.1718947124239194</v>
+        <v>0.1399918097180096</v>
       </c>
       <c r="D85">
-        <v>0.1640311026420073</v>
+        <v>-0.07220908324880523</v>
       </c>
       <c r="E85">
-        <v>0.1218302548719542</v>
+        <v>0.1816376997241762</v>
       </c>
       <c r="F85">
-        <v>0.1098664607319837</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.008796301844674954</v>
+      </c>
+      <c r="G85">
+        <v>-0.1337259572216676</v>
+      </c>
+      <c r="H85">
+        <v>0.003082129052486935</v>
+      </c>
+      <c r="I85">
+        <v>-0.105357938166116</v>
+      </c>
+      <c r="J85">
+        <v>0.03676758598221592</v>
+      </c>
+      <c r="K85">
+        <v>0.08472508693872059</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.04717428918464765</v>
+        <v>-0.0234870390887449</v>
       </c>
       <c r="C86">
-        <v>0.049801153112083</v>
+        <v>0.07140595323819064</v>
       </c>
       <c r="D86">
-        <v>-0.05731799508220527</v>
+        <v>-0.01762938345480883</v>
       </c>
       <c r="E86">
-        <v>-0.02164107724580909</v>
+        <v>-0.05741972819088337</v>
       </c>
       <c r="F86">
-        <v>-0.03541358252115319</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03649598697216284</v>
+      </c>
+      <c r="G86">
+        <v>-0.08481851420697223</v>
+      </c>
+      <c r="H86">
+        <v>-0.07574699115619289</v>
+      </c>
+      <c r="I86">
+        <v>0.0216780983366847</v>
+      </c>
+      <c r="J86">
+        <v>0.2041972846654018</v>
+      </c>
+      <c r="K86">
+        <v>-0.06308214390172676</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.03666245795967283</v>
+        <v>-0.02013619299973592</v>
       </c>
       <c r="C87">
-        <v>0.1324851615545899</v>
+        <v>0.1229997651715679</v>
       </c>
       <c r="D87">
-        <v>-0.100956207512017</v>
+        <v>0.004974557452936162</v>
       </c>
       <c r="E87">
-        <v>-0.1055859400276856</v>
+        <v>-0.1011596488850284</v>
       </c>
       <c r="F87">
-        <v>-0.007921341227304434</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.03124612284845856</v>
+      </c>
+      <c r="G87">
+        <v>-0.00734984543031452</v>
+      </c>
+      <c r="H87">
+        <v>-0.03234279474559171</v>
+      </c>
+      <c r="I87">
+        <v>0.1819387707251087</v>
+      </c>
+      <c r="J87">
+        <v>-0.03359607245307919</v>
+      </c>
+      <c r="K87">
+        <v>0.205092005217035</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.0141602273259861</v>
+        <v>-0.035085557691495</v>
       </c>
       <c r="C88">
-        <v>0.07172047028612451</v>
+        <v>0.0813739156515583</v>
       </c>
       <c r="D88">
-        <v>0.07835444243509675</v>
+        <v>-0.03499318304426752</v>
       </c>
       <c r="E88">
-        <v>0.0163809454801541</v>
+        <v>0.02283081977916928</v>
       </c>
       <c r="F88">
-        <v>-0.02415446658971578</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.002933558481347826</v>
+      </c>
+      <c r="G88">
+        <v>0.01906272800295618</v>
+      </c>
+      <c r="H88">
+        <v>0.007789368926550507</v>
+      </c>
+      <c r="I88">
+        <v>-0.090436517699334</v>
+      </c>
+      <c r="J88">
+        <v>-0.02800238726334578</v>
+      </c>
+      <c r="K88">
+        <v>-0.01944653627712244</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4155540482827597</v>
+        <v>-0.3932641349504715</v>
       </c>
       <c r="C89">
-        <v>-0.08934774647738351</v>
+        <v>-0.117615624376042</v>
       </c>
       <c r="D89">
-        <v>0.01365918501996251</v>
+        <v>0.03263426335611821</v>
       </c>
       <c r="E89">
-        <v>-0.1847296751607777</v>
+        <v>-0.06805671763469094</v>
       </c>
       <c r="F89">
-        <v>0.1003182522065506</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.04379201029973046</v>
+      </c>
+      <c r="G89">
+        <v>-0.02725397353299915</v>
+      </c>
+      <c r="H89">
+        <v>-0.07743430743296528</v>
+      </c>
+      <c r="I89">
+        <v>0.4964085240791284</v>
+      </c>
+      <c r="J89">
+        <v>-0.4232862472811724</v>
+      </c>
+      <c r="K89">
+        <v>-0.0349013751332099</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3139697688792863</v>
+        <v>-0.3183008477596426</v>
       </c>
       <c r="C90">
-        <v>-0.03810067556118756</v>
+        <v>-0.06827560844365821</v>
       </c>
       <c r="D90">
-        <v>-0.03381875140258181</v>
+        <v>0.001448545084684033</v>
       </c>
       <c r="E90">
-        <v>-0.001313745744061777</v>
+        <v>-0.03538194486936638</v>
       </c>
       <c r="F90">
-        <v>0.05247928603497876</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.009115761361727436</v>
+      </c>
+      <c r="G90">
+        <v>-0.02690845626399566</v>
+      </c>
+      <c r="H90">
+        <v>0.01140192176134507</v>
+      </c>
+      <c r="I90">
+        <v>-0.09018828750743857</v>
+      </c>
+      <c r="J90">
+        <v>0.05591188507931775</v>
+      </c>
+      <c r="K90">
+        <v>0.06032558665522596</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.0345623489103192</v>
+        <v>-0.04998470494292612</v>
       </c>
       <c r="C91">
-        <v>0.1385047941464866</v>
+        <v>0.1172469241708654</v>
       </c>
       <c r="D91">
-        <v>0.09485176335596567</v>
+        <v>-0.03669072078631717</v>
       </c>
       <c r="E91">
-        <v>0.07885767075135879</v>
+        <v>0.09045598216160176</v>
       </c>
       <c r="F91">
-        <v>0.05097397990222676</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.04226023610606908</v>
+      </c>
+      <c r="G91">
+        <v>-0.07148183341189698</v>
+      </c>
+      <c r="H91">
+        <v>0.001859908235252475</v>
+      </c>
+      <c r="I91">
+        <v>-0.04435685768304148</v>
+      </c>
+      <c r="J91">
+        <v>-0.01241135705097864</v>
+      </c>
+      <c r="K91">
+        <v>0.007365918766896374</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.3675159027912733</v>
+        <v>-0.3553756475372223</v>
       </c>
       <c r="C92">
-        <v>-0.0861861497935965</v>
+        <v>-0.1128353980377528</v>
       </c>
       <c r="D92">
-        <v>-0.01250872393764633</v>
+        <v>0.03176273527427034</v>
       </c>
       <c r="E92">
-        <v>-0.004557377812972984</v>
+        <v>-0.05380781956279954</v>
       </c>
       <c r="F92">
-        <v>-0.05998723045710981</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.08342063443338202</v>
+      </c>
+      <c r="G92">
+        <v>-0.02946446882277758</v>
+      </c>
+      <c r="H92">
+        <v>-0.05063530757199853</v>
+      </c>
+      <c r="I92">
+        <v>-0.1393921275898105</v>
+      </c>
+      <c r="J92">
+        <v>0.07551048690560246</v>
+      </c>
+      <c r="K92">
+        <v>-0.06657660265757992</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3270876815057517</v>
+        <v>-0.3206727401128067</v>
       </c>
       <c r="C93">
-        <v>-0.07786533880622992</v>
+        <v>-0.1115001626117561</v>
       </c>
       <c r="D93">
-        <v>0.03192746183000904</v>
+        <v>-0.01116130181982349</v>
       </c>
       <c r="E93">
-        <v>0.006656536118794723</v>
+        <v>0.0006676719136471862</v>
       </c>
       <c r="F93">
-        <v>0.004868138301899057</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.0114277044315825</v>
+      </c>
+      <c r="G93">
+        <v>-0.03568599113816966</v>
+      </c>
+      <c r="H93">
+        <v>-0.04262200877282813</v>
+      </c>
+      <c r="I93">
+        <v>-0.0665528583787007</v>
+      </c>
+      <c r="J93">
+        <v>0.09475700251724842</v>
+      </c>
+      <c r="K93">
+        <v>0.02424376290581186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.06260479696052103</v>
+        <v>-0.07586566974525795</v>
       </c>
       <c r="C94">
-        <v>0.2207950057527199</v>
+        <v>0.1934175706430511</v>
       </c>
       <c r="D94">
-        <v>0.2408601907607528</v>
+        <v>-0.09244154116402074</v>
       </c>
       <c r="E94">
-        <v>0.1696129991978261</v>
+        <v>0.3028685978283056</v>
       </c>
       <c r="F94">
-        <v>0.1774420839711062</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.01050860941529957</v>
+      </c>
+      <c r="G94">
+        <v>-0.3820543679358453</v>
+      </c>
+      <c r="H94">
+        <v>0.1026687030809355</v>
+      </c>
+      <c r="I94">
+        <v>0.1567732281778084</v>
+      </c>
+      <c r="J94">
+        <v>-0.4472354773358983</v>
+      </c>
+      <c r="K94">
+        <v>-0.3037920709823135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.02406817582303454</v>
+        <v>-0.03286210259050318</v>
       </c>
       <c r="C95">
-        <v>0.0635939465544071</v>
+        <v>0.1071066008091142</v>
       </c>
       <c r="D95">
-        <v>0.02503951463930436</v>
+        <v>-0.02689186131058052</v>
       </c>
       <c r="E95">
-        <v>-0.01555139520738855</v>
+        <v>0.00606766537130027</v>
       </c>
       <c r="F95">
-        <v>-0.1211729210612195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02559593234011508</v>
+      </c>
+      <c r="G95">
+        <v>0.1316017503949365</v>
+      </c>
+      <c r="H95">
+        <v>-0.03290733362514221</v>
+      </c>
+      <c r="I95">
+        <v>-0.06897124689865317</v>
+      </c>
+      <c r="J95">
+        <v>-0.1932593895949485</v>
+      </c>
+      <c r="K95">
+        <v>0.5861363143494659</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.005605589952281533</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.01201795954981241</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02308206934053654</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-0.01353608234457792</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.01409230565152363</v>
+      </c>
+      <c r="G97">
+        <v>0.03488878576263311</v>
+      </c>
+      <c r="H97">
+        <v>0.005011885663090396</v>
+      </c>
+      <c r="I97">
+        <v>-0.002679196892192256</v>
+      </c>
+      <c r="J97">
+        <v>0.02005103168500036</v>
+      </c>
+      <c r="K97">
+        <v>-0.05560208642217806</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.07088970880135066</v>
+        <v>-0.129827702670294</v>
       </c>
       <c r="C98">
-        <v>0.1504257170914978</v>
+        <v>0.1653717498925139</v>
       </c>
       <c r="D98">
-        <v>0.02649834170973133</v>
+        <v>-0.07514271554586899</v>
       </c>
       <c r="E98">
-        <v>-0.0649979343816556</v>
+        <v>0.07838048659329193</v>
       </c>
       <c r="F98">
-        <v>-0.2251196796742864</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.03306784015482529</v>
+      </c>
+      <c r="G98">
+        <v>0.3586218404045646</v>
+      </c>
+      <c r="H98">
+        <v>0.3495535328227226</v>
+      </c>
+      <c r="I98">
+        <v>0.1182694046392333</v>
+      </c>
+      <c r="J98">
+        <v>0.06323306603190075</v>
+      </c>
+      <c r="K98">
+        <v>-0.1413211776124872</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.00119363268343371</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.01000046541280224</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.01162659113980072</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.007848625508365618</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.002657108010361077</v>
+      </c>
+      <c r="G99">
+        <v>0.004732701563341993</v>
+      </c>
+      <c r="H99">
+        <v>-0.03844003596571647</v>
+      </c>
+      <c r="I99">
+        <v>0.02294919431040442</v>
+      </c>
+      <c r="J99">
+        <v>0.00802363452748674</v>
+      </c>
+      <c r="K99">
+        <v>-0.1911613556863246</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.005064085792572628</v>
+        <v>-0.009610776794047241</v>
       </c>
       <c r="C101">
-        <v>0.05499179311784466</v>
+        <v>0.07700961835458769</v>
       </c>
       <c r="D101">
-        <v>-0.04420715251119849</v>
+        <v>-0.03159701634916705</v>
       </c>
       <c r="E101">
-        <v>-0.1058143752429821</v>
+        <v>-0.1078842365484357</v>
       </c>
       <c r="F101">
-        <v>-0.07400676705277105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03275578078855174</v>
+      </c>
+      <c r="G101">
+        <v>0.154322543494711</v>
+      </c>
+      <c r="H101">
+        <v>-0.2727018604134309</v>
+      </c>
+      <c r="I101">
+        <v>-0.07252359058560517</v>
+      </c>
+      <c r="J101">
+        <v>-0.2361876435185558</v>
+      </c>
+      <c r="K101">
+        <v>-0.1245860217153423</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.01458948097121075</v>
+        <v>-0.006328662479440483</v>
       </c>
       <c r="C102">
-        <v>0.08339945454375941</v>
+        <v>0.03935352976519747</v>
       </c>
       <c r="D102">
-        <v>0.05858933402239427</v>
+        <v>-0.01242715668469976</v>
       </c>
       <c r="E102">
-        <v>0.04798249075396391</v>
+        <v>0.0420546535274968</v>
       </c>
       <c r="F102">
-        <v>0.02942201222943798</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.01481321401593625</v>
+      </c>
+      <c r="G102">
+        <v>-0.03982815163374234</v>
+      </c>
+      <c r="H102">
+        <v>-0.009647999834547194</v>
+      </c>
+      <c r="I102">
+        <v>-0.0009408599568025839</v>
+      </c>
+      <c r="J102">
+        <v>0.002794506873866162</v>
+      </c>
+      <c r="K102">
+        <v>-0.01876151349807887</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
